--- a/backend/reports/xlsx/Tab_38_rpt_PF_JVsforFiscal-Quarter.xlsx
+++ b/backend/reports/xlsx/Tab_38_rpt_PF_JVsforFiscal-Quarter.xlsx
@@ -1,42 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5012CE6-89D9-7143-8C06-06C445EC5C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62741D-1392-0343-AD6C-1CB04671B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14280" yWindow="-21100" windowWidth="51200" windowHeight="21100" xr2:uid="{FB9893AD-F19A-BB4E-A83D-FCCFB21F8723}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Project #</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>JV #</t>
+  </si>
+  <si>
+    <t>Billed Date</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
   <si>
     <t>{#r=d.report[i]}</t>
   </si>
@@ -47,19 +49,37 @@
     <t>{#t=d.report_totals[i]}</t>
   </si>
   <si>
+    <t>{#fy=d.fiscal_year}</t>
+  </si>
+  <si>
     <t>{#date=d.date}</t>
   </si>
   <si>
-    <t>Project #</t>
-  </si>
-  <si>
-    <t>Project Name</t>
-  </si>
-  <si>
-    <t>{#fy=d.fiscal_year}</t>
-  </si>
-  <si>
-    <t>Project ________ for {$fy} as of {$date}</t>
+    <t>{#q=d.report[i].quarter}</t>
+  </si>
+  <si>
+    <t>{$t.amount}</t>
+  </si>
+  <si>
+    <t>{$r.amount}</t>
+  </si>
+  <si>
+    <t>{$r.billed_date}</t>
+  </si>
+  <si>
+    <t>{$r.jv_number}</t>
+  </si>
+  <si>
+    <t>{$r.project_name}</t>
+  </si>
+  <si>
+    <t>{$r.project_number}</t>
+  </si>
+  <si>
+    <t>{$r1.project_number}</t>
+  </si>
+  <si>
+    <t>Project JVs for Quarter {$q} Fiscal {$fy}</t>
   </si>
 </sst>
 </file>
@@ -69,16 +89,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
+      <color theme="0"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
@@ -96,13 +117,19 @@
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BCSans-Regular"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="0"/>
       <name val="BCSans-Regular"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b/>
+      <u/>
+      <sz val="8.5"/>
       <name val="BCSans-Regular"/>
     </font>
   </fonts>
@@ -126,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -160,19 +187,6 @@
       <bottom style="medium">
         <color rgb="FFBFBFBF"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFBFBFBF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFBFBFBF"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA5A5A5"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -185,64 +199,59 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FFBFBFBF"/>
+      </left>
       <right style="medium">
         <color rgb="FFBFBFBF"/>
       </right>
       <top style="medium">
-        <color rgb="FFBFBFBF"/>
+        <color rgb="FFA5A5A5"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -250,13 +259,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF003365"/>
-      <color rgb="FFC5DAF1"/>
-    </mruColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -285,10 +288,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Graphic 3">
+        <xdr:cNvPr id="2" name="Graphic 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD3FB7DC-2494-89FE-0AC0-2E0678523FE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF928F9A-8932-E94E-BA1D-9547717ADD0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -311,7 +314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2411054" cy="680356"/>
+          <a:ext cx="2412591" cy="680356"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -358,20 +361,20 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -399,31 +402,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -451,23 +437,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,263 +448,288 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F20F7FF-D6FB-0145-BC76-92F810195548}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
-    <col min="3" max="9" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
+    <col min="6" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="57" customHeight="1" thickBot="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+    <row r="1" spans="1:5" ht="62" customHeight="1" thickBot="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1"/>
+    <row r="7" spans="1:5" ht="18" customHeight="1">
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="20" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
+    </row>
+    <row r="9" spans="1:5" ht="19">
+      <c r="B9" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="B10" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19">
+      <c r="B11" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19">
+      <c r="B12" s="11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="5" scale="91" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <headerFooter>
-    <oddFooter>&amp;LTab_43_rpt_PF_RecoveryForecast
-&amp;C&amp;P of &amp;N&amp;R{$date}</oddFooter>
-  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/reports/xlsx/Tab_38_rpt_PF_JVsforFiscal-Quarter.xlsx
+++ b/backend/reports/xlsx/Tab_38_rpt_PF_JVsforFiscal-Quarter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62741D-1392-0343-AD6C-1CB04671B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3E3FA-4629-7342-A7C1-218F5AD301AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14280" yWindow="-21100" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,27 +46,18 @@
     <t>{#r1=d.report[i+1]}</t>
   </si>
   <si>
-    <t>{#t=d.report_totals[i]}</t>
-  </si>
-  <si>
     <t>{#fy=d.fiscal_year}</t>
   </si>
   <si>
     <t>{#date=d.date}</t>
   </si>
   <si>
-    <t>{#q=d.report[i].quarter}</t>
-  </si>
-  <si>
     <t>{$t.amount}</t>
   </si>
   <si>
     <t>{$r.amount}</t>
   </si>
   <si>
-    <t>{$r.billed_date}</t>
-  </si>
-  <si>
     <t>{$r.jv_number}</t>
   </si>
   <si>
@@ -80,6 +71,15 @@
   </si>
   <si>
     <t>Project JVs for Quarter {$q} Fiscal {$fy}</t>
+  </si>
+  <si>
+    <t>{$r.date}</t>
+  </si>
+  <si>
+    <t>{#t=d.totals[i]}</t>
+  </si>
+  <si>
+    <t>{#q=d.report[0].quarter}</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +616,8 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -634,7 +634,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -658,24 +658,24 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1"/>
@@ -706,22 +706,22 @@
     </row>
     <row r="9" spans="1:5" ht="19">
       <c r="B9" s="11" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19">
       <c r="B10" s="11" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19">
       <c r="B11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19">
       <c r="B12" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/reports/xlsx/Tab_38_rpt_PF_JVsforFiscal-Quarter.xlsx
+++ b/backend/reports/xlsx/Tab_38_rpt_PF_JVsforFiscal-Quarter.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robrien/work/gdx-agreements-tracker/backend/reports/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3E3FA-4629-7342-A7C1-218F5AD301AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561F916E-DE20-F74A-806D-CF673D02B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-14280" yWindow="-21100" windowWidth="25600" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>{#r1=d.report[i+1]}</t>
   </si>
   <si>
-    <t>{#fy=d.fiscal_year}</t>
-  </si>
-  <si>
     <t>{#date=d.date}</t>
   </si>
   <si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t>{#q=d.report[0].quarter}</t>
+  </si>
+  <si>
+    <t>{#fy=d.fiscal}</t>
   </si>
 </sst>
 </file>
@@ -217,42 +217,42 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +617,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -631,97 +631,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="62" customHeight="1" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A3" s="5" t="s">
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" thickBot="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>10</v>
+      <c r="E5" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1"/>
     <row r="7" spans="1:5" ht="18" customHeight="1">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19">
+      <c r="B10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19">
-      <c r="B10" s="11" t="s">
+    <row r="11" spans="1:5" ht="19">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19">
-      <c r="B11" s="11" t="s">
+    <row r="12" spans="1:5" ht="19">
+      <c r="B12" s="10" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="19">
-      <c r="B12" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
